--- a/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/frankfurt ctrl 1/registroDeNotasFrnkfrCtrl1.xlsx
+++ b/assets uarm/2019 sol-penscri-justfilpol/S E B Ago2019/frankfurt ctrl 1/registroDeNotasFrnkfrCtrl1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\ZabData\zaboltar.github.io\assets uarm\2019 sol-penscri-justfilpol\Documentos para S E B\frankfurt ctrl 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitData\ZabData\zaboltar.github.io\assets uarm\2019 sol-penscri-justfilpol\S E B Ago2019\frankfurt ctrl 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>respuesta 1 ob</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Diego Vargas</t>
+  </si>
+  <si>
+    <t>Julio Olaechea</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +737,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
